--- a/src/main/resources/excel/and_hunfu.xlsx
+++ b/src/main/resources/excel/and_hunfu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,218 +183,342 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>不良人安卓混服WEB-002-005服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.19.202</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-006-010服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.51.71</t>
+  </si>
+  <si>
+    <t>10.135.43.9</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-016-020服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.10.181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-021-025服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-026-030服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.40.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-031-035服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.104.215.245</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-036-040服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.104.254.138</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-041-043服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.104.226.147</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-044-046服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.104.240.20</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-047-049服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.23.72</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-050-052服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.30.86</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-053-055服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.42.141</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-056-058服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.58.58</t>
+  </si>
+  <si>
+    <t>10.135.28.255</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-063-065服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.46.45</t>
+  </si>
+  <si>
+    <t>10.135.58.127</t>
+  </si>
+  <si>
+    <t>10.135.42.19</t>
+  </si>
+  <si>
+    <t>10.135.0.247</t>
+  </si>
+  <si>
+    <t>10.135.25.183</t>
+  </si>
+  <si>
+    <t>10.135.5.169</t>
+  </si>
+  <si>
+    <t>10.135.51.147</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-094-096服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.135.47.15</t>
+  </si>
+  <si>
+    <t>10.104.159.215</t>
+  </si>
+  <si>
+    <t>10.135.33.113</t>
+  </si>
+  <si>
+    <t>10.104.101.4</t>
+  </si>
+  <si>
+    <t>10.104.249.234</t>
+  </si>
+  <si>
+    <t>10.104.247.194</t>
+  </si>
+  <si>
+    <t>10.135.45.204</t>
+  </si>
+  <si>
+    <t>10.135.6.122</t>
+  </si>
+  <si>
+    <t>10.135.18.229</t>
+  </si>
+  <si>
+    <t>10.135.8.3</t>
+  </si>
+  <si>
+    <t>10.135.44.231</t>
+  </si>
+  <si>
+    <t>10.135.39.205</t>
+  </si>
+  <si>
+    <t>10.104.207.161</t>
+  </si>
+  <si>
+    <t>10.104.235.84</t>
+  </si>
+  <si>
+    <t>10.104.228.231</t>
+  </si>
+  <si>
+    <t>10.104.218.176</t>
+  </si>
+  <si>
+    <t>10.104.234.33</t>
+  </si>
+  <si>
+    <t>10.135.28.233</t>
+  </si>
+  <si>
+    <t>10.135.51.229</t>
+  </si>
+  <si>
+    <t>10.135.40.76</t>
+  </si>
+  <si>
+    <t>10.135.59.39</t>
+  </si>
+  <si>
+    <t>10.135.7.151</t>
+  </si>
+  <si>
+    <t>10.135.5.188</t>
+  </si>
+  <si>
+    <t>10.135.59.133</t>
+  </si>
+  <si>
+    <t>10.104.110.162</t>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-186-188服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.104.113.75</t>
+  </si>
+  <si>
+    <t>10.104.73.204</t>
+  </si>
+  <si>
+    <t>10.104.65.224</t>
+  </si>
+  <si>
+    <t>10.104.89.32</t>
+  </si>
+  <si>
+    <t>10.104.83.234</t>
+  </si>
+  <si>
+    <t>10.104.254.162</t>
+  </si>
+  <si>
+    <t>10.104.227.54</t>
+  </si>
+  <si>
+    <t>10.104.240.87</t>
+  </si>
+  <si>
+    <t>10.135.45.88</t>
+  </si>
+  <si>
+    <t>10.104.215.252</t>
+  </si>
+  <si>
+    <t>10.104.192.184</t>
+  </si>
+  <si>
+    <t>10.104.212.224</t>
+  </si>
+  <si>
+    <t>10.104.225.21</t>
+  </si>
+  <si>
+    <t>10.135.21.81</t>
+  </si>
+  <si>
+    <t>10.135.62.28</t>
+  </si>
+  <si>
+    <t>10.104.117.131</t>
+  </si>
+  <si>
+    <t>10.104.108.6</t>
+  </si>
+  <si>
+    <t>10.104.82.118</t>
+  </si>
+  <si>
+    <t>10.104.110.92</t>
+  </si>
+  <si>
+    <t>10.104.84.251</t>
+  </si>
+  <si>
+    <t>10.135.88.58</t>
+  </si>
+  <si>
+    <t>10.135.95.151</t>
+  </si>
+  <si>
     <t>10.104.54.153</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人安卓混服WEB-002-005服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.19.202</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-006-010服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.51.71</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-011-015服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.43.9</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-016-020服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.10.181</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-021-025服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10.135.57.9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>不良人安卓混服WEB-026-030服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.40.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-031-035服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.104.215.245</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-036-040服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.104.254.138</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-041-043服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.104.226.147</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-044-046服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.104.240.20</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-047-049服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.23.72</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-050-052服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.30.86</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-053-055服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.42.141</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-056-058服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.58.58</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-059-062服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.28.255</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-063-065服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.46.45</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-066-070服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.58.127</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-071-075服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.42.19</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-076-080服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.0.247</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-081-085服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.25.183</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-086-090服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.5.169</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-091-093服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.51.147</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-094-096服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.135.47.15</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-097-100服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.159.215</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-101-105服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.33.113</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-106-110服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.101.4</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-111-113服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.249.234</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-114-116服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.247.194</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-117-120服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.45.204</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-121-124服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -407,72 +531,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.6.122</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-128-130服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.18.229</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-131-134服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.8.3</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-135-137服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.44.231</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-138-140服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.39.205</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-141-143服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.207.161</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-144-146服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.235.84</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-147-149服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.228.231</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-150-152服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.218.176</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-153-155服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.234.33</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-156-158服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,30 +579,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.28.233</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-162-164服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.51.229</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-165-167服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.40.76</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-168-170服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.59.39</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-171-173服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -521,320 +603,100 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.7.151</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-177-179服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.5.188</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-180-182服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.59.133</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-183-185服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.110.162</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-186-188服</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.104.113.75</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-189-191服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.73.204</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-192-194服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.65.224</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-195-197服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.89.32</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-198-200服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.83.234</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-201-203服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.254.162</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-204-206服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.227.54</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-207-209服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.240.87</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-210-212服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.45.88</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-213-215服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.215.252</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-216-218服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.192.184</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-219-221服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.212.224</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-222-224服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.104.225.21</t>
-  </si>
-  <si>
     <t>不良人安卓混服WEB-225-227服</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10.135.21.81</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-228服</t>
-  </si>
-  <si>
-    <t>10.135.62.28</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-229服</t>
-  </si>
-  <si>
-    <t>10.135.54.30</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-230服</t>
-  </si>
-  <si>
-    <t>10.104.241.46</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-231服</t>
-  </si>
-  <si>
-    <t>10.104.122.19</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-232服</t>
-  </si>
-  <si>
-    <t>10.104.117.131</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-233服</t>
-  </si>
-  <si>
-    <t>10.104.81.170</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-234服</t>
-  </si>
-  <si>
-    <t>10.104.125.214</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-235服</t>
-  </si>
-  <si>
-    <t>10.104.111.216</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-236服</t>
-  </si>
-  <si>
-    <t>10.104.108.6</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-237服</t>
-  </si>
-  <si>
-    <t>10.104.78.137</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-238服</t>
-  </si>
-  <si>
-    <t>10.104.83.40</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-239服</t>
-  </si>
-  <si>
-    <t>10.104.113.8</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-240服</t>
-  </si>
-  <si>
-    <t>10.104.82.118</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-241服</t>
-  </si>
-  <si>
-    <t>10.104.109.183</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-242服</t>
-  </si>
-  <si>
-    <t>10.104.123.218</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-243服</t>
-  </si>
-  <si>
-    <t>10.104.104.112</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-244服</t>
-  </si>
-  <si>
-    <t>10.104.110.92</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-245服</t>
-  </si>
-  <si>
-    <t>10.104.76.186</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-246服</t>
-  </si>
-  <si>
-    <t>10.104.89.200</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-247服</t>
-  </si>
-  <si>
-    <t>10.104.88.60</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-248服</t>
-  </si>
-  <si>
-    <t>10.104.84.251</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-249服</t>
-  </si>
-  <si>
-    <t>10.104.70.194</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-250服</t>
-  </si>
-  <si>
-    <t>10.104.80.72</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-251服</t>
-  </si>
-  <si>
-    <t>10.135.127.235</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-252服</t>
-  </si>
-  <si>
-    <t>10.135.88.58</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-253服</t>
-  </si>
-  <si>
-    <t>10.135.88.88</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-254服</t>
-  </si>
-  <si>
-    <t>10.135.93.176</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-255服</t>
-  </si>
-  <si>
-    <t>10.135.89.43</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-256服</t>
-  </si>
-  <si>
-    <t>10.135.95.151</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-257服</t>
-  </si>
-  <si>
-    <t>10.135.92.103</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-258服</t>
-  </si>
-  <si>
-    <t>10.135.93.99</t>
-  </si>
-  <si>
-    <t>不良人安卓混服WEB-259服</t>
-  </si>
-  <si>
-    <t>10.135.127.42</t>
+    <t>不良人安卓混服WEB-228-231服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-232-235服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-236-239服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-240-243服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-244-247服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-248-251服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-252-255服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不良人安卓混服WEB-256-259服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1315,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1624,1357 +1486,1021 @@
         <v>43</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>3306</v>
       </c>
       <c r="D21">
-        <v>10501</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="C22">
         <v>3306</v>
       </c>
       <c r="D22">
-        <v>10502</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="C23">
         <v>3306</v>
       </c>
       <c r="D23">
-        <v>10503</v>
+        <v>10022</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>3306</v>
       </c>
       <c r="D24">
-        <v>10504</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25">
         <v>3306</v>
       </c>
       <c r="D25">
-        <v>10505</v>
+        <v>10024</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C26">
         <v>3306</v>
       </c>
       <c r="D26">
-        <v>10506</v>
+        <v>10025</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>3306</v>
       </c>
       <c r="D27">
-        <v>10507</v>
+        <v>10026</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>3306</v>
       </c>
       <c r="D28">
-        <v>10508</v>
+        <v>10027</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C29">
         <v>3306</v>
       </c>
       <c r="D29">
-        <v>10509</v>
+        <v>10028</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>3306</v>
       </c>
       <c r="D30">
-        <v>10510</v>
+        <v>10029</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31">
         <v>3306</v>
       </c>
       <c r="D31">
-        <v>10511</v>
+        <v>10030</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C32">
         <v>3306</v>
       </c>
       <c r="D32">
-        <v>10512</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>3306</v>
       </c>
       <c r="D33">
-        <v>10513</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C34">
         <v>3306</v>
       </c>
       <c r="D34">
-        <v>10514</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35">
         <v>3306</v>
       </c>
       <c r="D35">
-        <v>10515</v>
+        <v>10034</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C36">
         <v>3306</v>
       </c>
       <c r="D36">
-        <v>10516</v>
+        <v>10035</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C37">
         <v>3306</v>
       </c>
       <c r="D37">
-        <v>10517</v>
+        <v>10036</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="7" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>3306</v>
       </c>
       <c r="D38">
-        <v>10518</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C39">
         <v>3306</v>
       </c>
       <c r="D39">
-        <v>10519</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C40">
         <v>3306</v>
       </c>
       <c r="D40">
-        <v>10520</v>
+        <v>10039</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>3306</v>
       </c>
       <c r="D41">
-        <v>10521</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>3306</v>
       </c>
       <c r="D42">
-        <v>10522</v>
+        <v>10041</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C43">
         <v>3306</v>
       </c>
       <c r="D43">
-        <v>10523</v>
+        <v>10042</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C44">
         <v>3306</v>
       </c>
       <c r="D44">
-        <v>10524</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C45">
         <v>3306</v>
       </c>
       <c r="D45">
-        <v>10525</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C46">
         <v>3306</v>
       </c>
       <c r="D46">
-        <v>10526</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="7" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>3306</v>
       </c>
       <c r="D47">
-        <v>10527</v>
+        <v>10046</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C48">
         <v>3306</v>
       </c>
       <c r="D48">
-        <v>10528</v>
+        <v>10047</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C49">
         <v>3306</v>
       </c>
       <c r="D49">
-        <v>10529</v>
+        <v>10048</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>3306</v>
       </c>
       <c r="D50">
-        <v>10530</v>
+        <v>10049</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="C51">
         <v>3306</v>
       </c>
       <c r="D51">
-        <v>10531</v>
+        <v>10050</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>3306</v>
       </c>
       <c r="D52">
-        <v>10532</v>
+        <v>10051</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="C53">
         <v>3306</v>
       </c>
       <c r="D53">
-        <v>10533</v>
+        <v>10052</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C54">
         <v>3306</v>
       </c>
       <c r="D54">
-        <v>10534</v>
+        <v>10053</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C55">
         <v>3306</v>
       </c>
       <c r="D55">
-        <v>10535</v>
+        <v>10054</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C56">
         <v>3306</v>
       </c>
       <c r="D56">
-        <v>10536</v>
+        <v>10055</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C57">
         <v>3306</v>
       </c>
       <c r="D57">
-        <v>10537</v>
+        <v>10056</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C58">
         <v>3306</v>
       </c>
       <c r="D58">
-        <v>10538</v>
+        <v>10057</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="C59">
         <v>3306</v>
       </c>
       <c r="D59">
-        <v>10539</v>
+        <v>10058</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C60">
         <v>3306</v>
       </c>
       <c r="D60">
-        <v>10540</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="C61">
         <v>3306</v>
       </c>
       <c r="D61">
-        <v>10541</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C62">
         <v>3306</v>
       </c>
       <c r="D62">
-        <v>10542</v>
+        <v>10061</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="C63">
         <v>3306</v>
       </c>
       <c r="D63">
-        <v>10543</v>
+        <v>10062</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C64">
         <v>3306</v>
       </c>
       <c r="D64">
-        <v>10544</v>
+        <v>10063</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="C65">
         <v>3306</v>
       </c>
       <c r="D65">
-        <v>10545</v>
+        <v>10064</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C66">
         <v>3306</v>
       </c>
       <c r="D66">
-        <v>10546</v>
+        <v>10065</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>136</v>
+      <c r="A67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C67">
         <v>3306</v>
       </c>
       <c r="D67">
-        <v>10547</v>
+        <v>10066</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>138</v>
+      <c r="A68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C68">
         <v>3306</v>
       </c>
       <c r="D68">
-        <v>10548</v>
+        <v>10067</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>140</v>
+      <c r="A69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="C69">
         <v>3306</v>
       </c>
       <c r="D69">
-        <v>10549</v>
+        <v>10068</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>142</v>
+      <c r="A70" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C70">
         <v>3306</v>
       </c>
       <c r="D70">
-        <v>10550</v>
+        <v>10069</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>144</v>
+      <c r="A71" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="C71">
         <v>3306</v>
       </c>
       <c r="D71">
-        <v>10551</v>
+        <v>10070</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>146</v>
+      <c r="A72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="C72">
         <v>3306</v>
       </c>
       <c r="D72">
-        <v>10552</v>
+        <v>10071</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>148</v>
+      <c r="A73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C73">
         <v>3306</v>
       </c>
       <c r="D73">
-        <v>10553</v>
+        <v>10072</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>150</v>
+      <c r="A74" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="C74">
         <v>3306</v>
       </c>
       <c r="D74">
-        <v>10554</v>
+        <v>10073</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>152</v>
+      <c r="A75" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C75">
         <v>3306</v>
       </c>
       <c r="D75">
-        <v>10555</v>
+        <v>10074</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>154</v>
+      <c r="A76" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C76">
         <v>3306</v>
       </c>
       <c r="D76">
-        <v>10556</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>156</v>
+      <c r="A77" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C77">
         <v>3306</v>
       </c>
       <c r="D77">
-        <v>10557</v>
+        <v>10076</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>158</v>
+      <c r="A78" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="C78">
         <v>3306</v>
       </c>
       <c r="D78">
-        <v>10558</v>
+        <v>10077</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>160</v>
+      <c r="A79" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C79">
         <v>3306</v>
       </c>
       <c r="D79">
-        <v>10559</v>
+        <v>10078</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B80" s="12" t="s">
-        <v>162</v>
+      <c r="A80" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="C80">
         <v>3306</v>
       </c>
       <c r="D80">
-        <v>10560</v>
+        <v>10079</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>164</v>
+      <c r="A81" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C81">
         <v>3306</v>
       </c>
       <c r="D81">
-        <v>10561</v>
+        <v>10080</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>166</v>
+      <c r="A82" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C82">
         <v>3306</v>
       </c>
       <c r="D82">
-        <v>10562</v>
+        <v>10081</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>168</v>
+      <c r="A83" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C83">
         <v>3306</v>
       </c>
       <c r="D83">
-        <v>10563</v>
+        <v>10082</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B84" s="12" t="s">
-        <v>170</v>
+      <c r="A84" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C84">
         <v>3306</v>
       </c>
       <c r="D84">
-        <v>10564</v>
+        <v>10083</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B85" s="12" t="s">
-        <v>172</v>
+      <c r="A85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C85">
         <v>3306</v>
       </c>
       <c r="D85">
-        <v>10565</v>
+        <v>10084</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>174</v>
+      <c r="A86" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="C86">
         <v>3306</v>
       </c>
       <c r="D86">
-        <v>10566</v>
+        <v>10085</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>176</v>
+      <c r="A87" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C87">
         <v>3306</v>
       </c>
       <c r="D87">
-        <v>10567</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>178</v>
+      <c r="A88" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="C88">
         <v>3306</v>
       </c>
       <c r="D88">
-        <v>10568</v>
+        <v>10087</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>180</v>
+      <c r="A89" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="C89">
         <v>3306</v>
       </c>
       <c r="D89">
-        <v>10569</v>
+        <v>10088</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>182</v>
+      <c r="A90" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="C90">
         <v>3306</v>
       </c>
       <c r="D90">
-        <v>10570</v>
+        <v>10089</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>184</v>
+      <c r="A91" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C91">
         <v>3306</v>
       </c>
       <c r="D91">
-        <v>10571</v>
+        <v>10090</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>186</v>
+      <c r="A92" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="C92">
         <v>3306</v>
       </c>
       <c r="D92">
-        <v>10572</v>
+        <v>10091</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="A93" s="12" t="s">
         <v>188</v>
       </c>
+      <c r="B93" s="12" t="s">
+        <v>127</v>
+      </c>
       <c r="C93">
         <v>3306</v>
       </c>
       <c r="D93">
-        <v>10573</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C94">
-        <v>3306</v>
-      </c>
-      <c r="D94">
-        <v>10574</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C95">
-        <v>3306</v>
-      </c>
-      <c r="D95">
-        <v>10575</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="C96">
-        <v>3306</v>
-      </c>
-      <c r="D96">
-        <v>10576</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C97">
-        <v>3306</v>
-      </c>
-      <c r="D97">
-        <v>10577</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C98">
-        <v>3306</v>
-      </c>
-      <c r="D98">
-        <v>10578</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C99">
-        <v>3306</v>
-      </c>
-      <c r="D99">
-        <v>10579</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100">
-        <v>3306</v>
-      </c>
-      <c r="D100">
-        <v>10580</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C101">
-        <v>3306</v>
-      </c>
-      <c r="D101">
-        <v>10581</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C102">
-        <v>3306</v>
-      </c>
-      <c r="D102">
-        <v>10582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C103">
-        <v>3306</v>
-      </c>
-      <c r="D103">
-        <v>10583</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C104">
-        <v>3306</v>
-      </c>
-      <c r="D104">
-        <v>10584</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="C105">
-        <v>3306</v>
-      </c>
-      <c r="D105">
-        <v>10585</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106">
-        <v>3306</v>
-      </c>
-      <c r="D106">
-        <v>10586</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C107">
-        <v>3306</v>
-      </c>
-      <c r="D107">
-        <v>10587</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C108">
-        <v>3306</v>
-      </c>
-      <c r="D108">
-        <v>10588</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C109">
-        <v>3306</v>
-      </c>
-      <c r="D109">
-        <v>10589</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110">
-        <v>3306</v>
-      </c>
-      <c r="D110">
-        <v>10590</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111">
-        <v>3306</v>
-      </c>
-      <c r="D111">
-        <v>10591</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C112">
-        <v>3306</v>
-      </c>
-      <c r="D112">
-        <v>10592</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C113">
-        <v>3306</v>
-      </c>
-      <c r="D113">
-        <v>10593</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C114">
-        <v>3306</v>
-      </c>
-      <c r="D114">
-        <v>10594</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C115">
-        <v>3306</v>
-      </c>
-      <c r="D115">
-        <v>10595</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C116">
-        <v>3306</v>
-      </c>
-      <c r="D116">
-        <v>10596</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C117">
-        <v>3306</v>
-      </c>
-      <c r="D117">
-        <v>10597</v>
+        <v>10092</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/and_hunfu.xlsx
+++ b/src/main/resources/excel/and_hunfu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,6 +697,14 @@
   <si>
     <t>不良人安卓混服WEB-256-259服</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gaoye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseServerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1177,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1190,9 +1198,10 @@
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1208,8 +1217,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1222,8 +1237,14 @@
       <c r="D2">
         <v>10001</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1236,8 +1257,14 @@
       <c r="D3">
         <v>10002</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1250,8 +1277,14 @@
       <c r="D4">
         <v>10003</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.25">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1264,8 +1297,14 @@
       <c r="D5">
         <v>10004</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1278,8 +1317,14 @@
       <c r="D6">
         <v>10005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1292,8 +1337,14 @@
       <c r="D7">
         <v>10006</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1306,8 +1357,14 @@
       <c r="D8">
         <v>10007</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +1377,14 @@
       <c r="D9">
         <v>10008</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1334,8 +1397,14 @@
       <c r="D10">
         <v>10009</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,8 +1417,14 @@
       <c r="D11">
         <v>10010</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1362,8 +1437,14 @@
       <c r="D12">
         <v>10011</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1376,8 +1457,14 @@
       <c r="D13">
         <v>10012</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1390,8 +1477,14 @@
       <c r="D14">
         <v>10013</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
@@ -1404,8 +1497,14 @@
       <c r="D15">
         <v>10014</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1418,8 +1517,14 @@
       <c r="D16">
         <v>10015</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1432,8 +1537,14 @@
       <c r="D17">
         <v>10016</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -1449,8 +1560,14 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -1466,8 +1583,14 @@
       <c r="E19" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -1480,8 +1603,14 @@
       <c r="D20">
         <v>10019</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1494,8 +1623,14 @@
       <c r="D21">
         <v>10020</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -1508,8 +1643,14 @@
       <c r="D22">
         <v>10021</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -1522,8 +1663,14 @@
       <c r="D23">
         <v>10022</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
@@ -1536,8 +1683,14 @@
       <c r="D24">
         <v>10023</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1550,8 +1703,14 @@
       <c r="D25">
         <v>10024</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
@@ -1564,8 +1723,14 @@
       <c r="D26">
         <v>10025</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
@@ -1578,8 +1743,14 @@
       <c r="D27">
         <v>10026</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1592,8 +1763,14 @@
       <c r="D28">
         <v>10027</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
@@ -1606,8 +1783,14 @@
       <c r="D29">
         <v>10028</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1620,8 +1803,14 @@
       <c r="D30">
         <v>10029</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1634,8 +1823,14 @@
       <c r="D31">
         <v>10030</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1648,8 +1843,14 @@
       <c r="D32">
         <v>10031</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1662,8 +1863,14 @@
       <c r="D33">
         <v>10032</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1676,8 +1883,14 @@
       <c r="D34">
         <v>10033</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1690,8 +1903,14 @@
       <c r="D35">
         <v>10034</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
@@ -1704,8 +1923,14 @@
       <c r="D36">
         <v>10035</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1718,8 +1943,14 @@
       <c r="D37">
         <v>10036</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="7" t="s">
         <v>132</v>
       </c>
@@ -1732,8 +1963,14 @@
       <c r="D38">
         <v>10037</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="7" t="s">
         <v>133</v>
       </c>
@@ -1746,8 +1983,14 @@
       <c r="D39">
         <v>10038</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="7" t="s">
         <v>134</v>
       </c>
@@ -1760,8 +2003,14 @@
       <c r="D40">
         <v>10039</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="7" t="s">
         <v>135</v>
       </c>
@@ -1774,8 +2023,14 @@
       <c r="D41">
         <v>10040</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="7" t="s">
         <v>136</v>
       </c>
@@ -1788,8 +2043,14 @@
       <c r="D42">
         <v>10041</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="2" t="s">
         <v>137</v>
       </c>
@@ -1802,8 +2063,14 @@
       <c r="D43">
         <v>10042</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -1816,8 +2083,14 @@
       <c r="D44">
         <v>10043</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="2" t="s">
         <v>138</v>
       </c>
@@ -1830,8 +2103,14 @@
       <c r="D45">
         <v>10044</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="7" t="s">
         <v>139</v>
       </c>
@@ -1844,8 +2123,14 @@
       <c r="D46">
         <v>10045</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="7" t="s">
         <v>140</v>
       </c>
@@ -1858,8 +2143,14 @@
       <c r="D47">
         <v>10046</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -1872,8 +2163,14 @@
       <c r="D48">
         <v>10047</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -1886,8 +2183,14 @@
       <c r="D49">
         <v>10048</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -1900,8 +2203,14 @@
       <c r="D50">
         <v>10049</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
@@ -1914,8 +2223,14 @@
       <c r="D51">
         <v>10050</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
@@ -1928,8 +2243,14 @@
       <c r="D52">
         <v>10051</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
@@ -1942,8 +2263,14 @@
       <c r="D53">
         <v>10052</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -1956,8 +2283,14 @@
       <c r="D54">
         <v>10053</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="2" t="s">
         <v>149</v>
       </c>
@@ -1970,8 +2303,14 @@
       <c r="D55">
         <v>10054</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -1984,8 +2323,14 @@
       <c r="D56">
         <v>10055</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -1998,8 +2343,14 @@
       <c r="D57">
         <v>10056</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="2" t="s">
         <v>152</v>
       </c>
@@ -2012,8 +2363,14 @@
       <c r="D58">
         <v>10057</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -2026,8 +2383,14 @@
       <c r="D59">
         <v>10058</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
@@ -2040,8 +2403,14 @@
       <c r="D60">
         <v>10059</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="2" t="s">
         <v>155</v>
       </c>
@@ -2054,8 +2423,14 @@
       <c r="D61">
         <v>10060</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -2068,8 +2443,14 @@
       <c r="D62">
         <v>10061</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="2" t="s">
         <v>158</v>
       </c>
@@ -2082,8 +2463,14 @@
       <c r="D63">
         <v>10062</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="2" t="s">
         <v>159</v>
       </c>
@@ -2096,8 +2483,14 @@
       <c r="D64">
         <v>10063</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="2" t="s">
         <v>160</v>
       </c>
@@ -2110,8 +2503,14 @@
       <c r="D65">
         <v>10064</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="2" t="s">
         <v>161</v>
       </c>
@@ -2124,8 +2523,14 @@
       <c r="D66">
         <v>10065</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -2138,8 +2543,14 @@
       <c r="D67">
         <v>10066</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="2" t="s">
         <v>164</v>
       </c>
@@ -2152,8 +2563,14 @@
       <c r="D68">
         <v>10067</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="2" t="s">
         <v>165</v>
       </c>
@@ -2166,8 +2583,14 @@
       <c r="D69">
         <v>10068</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>166</v>
       </c>
@@ -2180,8 +2603,14 @@
       <c r="D70">
         <v>10069</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="2" t="s">
         <v>167</v>
       </c>
@@ -2194,8 +2623,14 @@
       <c r="D71">
         <v>10070</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="2" t="s">
         <v>105</v>
       </c>
@@ -2208,8 +2643,14 @@
       <c r="D72">
         <v>10071</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -2222,8 +2663,14 @@
       <c r="D73">
         <v>10072</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="2" t="s">
         <v>169</v>
       </c>
@@ -2236,8 +2683,14 @@
       <c r="D74">
         <v>10073</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="2" t="s">
         <v>170</v>
       </c>
@@ -2250,8 +2703,14 @@
       <c r="D75">
         <v>10074</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="2" t="s">
         <v>171</v>
       </c>
@@ -2264,8 +2723,14 @@
       <c r="D76">
         <v>10075</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="2" t="s">
         <v>172</v>
       </c>
@@ -2278,8 +2743,14 @@
       <c r="D77">
         <v>10076</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="2" t="s">
         <v>173</v>
       </c>
@@ -2292,8 +2763,14 @@
       <c r="D78">
         <v>10077</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="2" t="s">
         <v>174</v>
       </c>
@@ -2306,8 +2783,14 @@
       <c r="D79">
         <v>10078</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="2" t="s">
         <v>175</v>
       </c>
@@ -2320,8 +2803,14 @@
       <c r="D80">
         <v>10079</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="2" t="s">
         <v>176</v>
       </c>
@@ -2334,8 +2823,14 @@
       <c r="D81">
         <v>10080</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="2" t="s">
         <v>177</v>
       </c>
@@ -2348,8 +2843,14 @@
       <c r="D82">
         <v>10081</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="2" t="s">
         <v>178</v>
       </c>
@@ -2362,8 +2863,14 @@
       <c r="D83">
         <v>10082</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="2" t="s">
         <v>179</v>
       </c>
@@ -2376,8 +2883,14 @@
       <c r="D84">
         <v>10083</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="2" t="s">
         <v>180</v>
       </c>
@@ -2390,8 +2903,14 @@
       <c r="D85">
         <v>10084</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="12" t="s">
         <v>181</v>
       </c>
@@ -2404,8 +2923,14 @@
       <c r="D86">
         <v>10085</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="12" t="s">
         <v>182</v>
       </c>
@@ -2418,8 +2943,14 @@
       <c r="D87">
         <v>10086</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="12" t="s">
         <v>183</v>
       </c>
@@ -2432,8 +2963,14 @@
       <c r="D88">
         <v>10087</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="12" t="s">
         <v>184</v>
       </c>
@@ -2446,8 +2983,14 @@
       <c r="D89">
         <v>10088</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="12" t="s">
         <v>185</v>
       </c>
@@ -2460,8 +3003,14 @@
       <c r="D90">
         <v>10089</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="12" t="s">
         <v>186</v>
       </c>
@@ -2474,8 +3023,14 @@
       <c r="D91">
         <v>10090</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="12" t="s">
         <v>187</v>
       </c>
@@ -2488,8 +3043,14 @@
       <c r="D92">
         <v>10091</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="12" t="s">
         <v>188</v>
       </c>
@@ -2501,10 +3062,17 @@
       </c>
       <c r="D93">
         <v>10092</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/excel/and_hunfu.xlsx
+++ b/src/main/resources/excel/and_hunfu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -704,6 +704,14 @@
   </si>
   <si>
     <t>baseServerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRedis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redisLocalPortAdd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G93"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1199,9 +1207,10 @@
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,8 +1232,14 @@
       <c r="G1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1243,8 +1258,14 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1263,8 +1284,14 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.25">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1283,8 +1310,14 @@
       <c r="G4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1303,8 +1336,14 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1362,14 @@
       <c r="G6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -1343,8 +1388,14 @@
       <c r="G7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1363,8 +1414,14 @@
       <c r="G8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1383,8 +1440,14 @@
       <c r="G9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1403,8 +1466,14 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1423,8 +1492,14 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1443,8 +1518,14 @@
       <c r="G12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
@@ -1463,8 +1544,14 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -1483,8 +1570,14 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
@@ -1503,8 +1596,14 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
         <v>31</v>
       </c>
@@ -1523,8 +1622,14 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -1543,8 +1648,14 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>35</v>
       </c>
@@ -1566,8 +1677,14 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="10" t="s">
         <v>38</v>
       </c>
@@ -1589,8 +1706,14 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="10" t="s">
         <v>41</v>
       </c>
@@ -1609,8 +1732,14 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
@@ -1629,8 +1758,14 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
@@ -1649,8 +1784,14 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
@@ -1669,8 +1810,14 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="7" t="s">
         <v>129</v>
       </c>
@@ -1689,8 +1836,14 @@
       <c r="G24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="7" t="s">
         <v>49</v>
       </c>
@@ -1709,8 +1862,14 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
@@ -1729,8 +1888,14 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
@@ -1749,8 +1914,14 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="7" t="s">
         <v>54</v>
       </c>
@@ -1769,8 +1940,14 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
         <v>56</v>
       </c>
@@ -1789,8 +1966,14 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1809,8 +1992,14 @@
       <c r="G30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1829,8 +2018,14 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1849,8 +2044,14 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1869,8 +2070,14 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1889,8 +2096,14 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1909,8 +2122,14 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
         <v>131</v>
       </c>
@@ -1929,8 +2148,14 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1949,8 +2174,14 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="7" t="s">
         <v>132</v>
       </c>
@@ -1969,8 +2200,14 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="7" t="s">
         <v>133</v>
       </c>
@@ -1989,8 +2226,14 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="7" t="s">
         <v>134</v>
       </c>
@@ -2009,8 +2252,14 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="7" t="s">
         <v>135</v>
       </c>
@@ -2029,8 +2278,14 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="7" t="s">
         <v>136</v>
       </c>
@@ -2049,8 +2304,14 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
         <v>137</v>
       </c>
@@ -2069,8 +2330,14 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -2089,8 +2356,14 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
         <v>138</v>
       </c>
@@ -2109,8 +2382,14 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="7" t="s">
         <v>139</v>
       </c>
@@ -2129,8 +2408,14 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="7" t="s">
         <v>140</v>
       </c>
@@ -2149,8 +2434,14 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
         <v>141</v>
       </c>
@@ -2169,8 +2460,14 @@
       <c r="G48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
         <v>142</v>
       </c>
@@ -2189,8 +2486,14 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
         <v>143</v>
       </c>
@@ -2209,8 +2512,14 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
         <v>144</v>
       </c>
@@ -2229,8 +2538,14 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
         <v>146</v>
       </c>
@@ -2249,8 +2564,14 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
         <v>147</v>
       </c>
@@ -2269,8 +2590,14 @@
       <c r="G53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
         <v>148</v>
       </c>
@@ -2289,8 +2616,14 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
         <v>149</v>
       </c>
@@ -2309,8 +2642,14 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
         <v>150</v>
       </c>
@@ -2329,8 +2668,14 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
         <v>151</v>
       </c>
@@ -2349,8 +2694,14 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
         <v>152</v>
       </c>
@@ -2369,8 +2720,14 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
         <v>153</v>
       </c>
@@ -2389,8 +2746,14 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
@@ -2409,8 +2772,14 @@
       <c r="G60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
         <v>155</v>
       </c>
@@ -2429,8 +2798,14 @@
       <c r="G61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
         <v>156</v>
       </c>
@@ -2449,8 +2824,14 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
         <v>158</v>
       </c>
@@ -2469,8 +2850,14 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
         <v>159</v>
       </c>
@@ -2489,8 +2876,14 @@
       <c r="G64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
         <v>160</v>
       </c>
@@ -2509,8 +2902,14 @@
       <c r="G65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
         <v>161</v>
       </c>
@@ -2529,8 +2928,14 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
         <v>162</v>
       </c>
@@ -2549,8 +2954,14 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
         <v>164</v>
       </c>
@@ -2569,8 +2980,14 @@
       <c r="G68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
         <v>165</v>
       </c>
@@ -2589,8 +3006,14 @@
       <c r="G69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
         <v>166</v>
       </c>
@@ -2609,8 +3032,14 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
         <v>167</v>
       </c>
@@ -2629,8 +3058,14 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
         <v>105</v>
       </c>
@@ -2649,8 +3084,14 @@
       <c r="G72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -2669,8 +3110,14 @@
       <c r="G73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
         <v>169</v>
       </c>
@@ -2689,8 +3136,14 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
         <v>170</v>
       </c>
@@ -2709,8 +3162,14 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
         <v>171</v>
       </c>
@@ -2729,8 +3188,14 @@
       <c r="G76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
         <v>172</v>
       </c>
@@ -2749,8 +3214,14 @@
       <c r="G77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
         <v>173</v>
       </c>
@@ -2769,8 +3240,14 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
         <v>174</v>
       </c>
@@ -2789,8 +3266,14 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
         <v>175</v>
       </c>
@@ -2809,8 +3292,14 @@
       <c r="G80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
         <v>176</v>
       </c>
@@ -2829,8 +3318,14 @@
       <c r="G81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
         <v>177</v>
       </c>
@@ -2849,8 +3344,14 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
         <v>178</v>
       </c>
@@ -2869,8 +3370,14 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
         <v>179</v>
       </c>
@@ -2889,8 +3396,14 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
         <v>180</v>
       </c>
@@ -2909,8 +3422,14 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="12" t="s">
         <v>181</v>
       </c>
@@ -2929,8 +3448,14 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="12" t="s">
         <v>182</v>
       </c>
@@ -2949,8 +3474,14 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="12" t="s">
         <v>183</v>
       </c>
@@ -2969,8 +3500,14 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="12" t="s">
         <v>184</v>
       </c>
@@ -2989,8 +3526,14 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="12" t="s">
         <v>185</v>
       </c>
@@ -3009,8 +3552,14 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="12" t="s">
         <v>186</v>
       </c>
@@ -3029,8 +3578,14 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="12" t="s">
         <v>187</v>
       </c>
@@ -3049,8 +3604,14 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="12" t="s">
         <v>188</v>
       </c>
@@ -3068,6 +3629,12 @@
       </c>
       <c r="G93">
         <v>0</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
